--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H2">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I2">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J2">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N2">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O2">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P2">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q2">
-        <v>696.227440809104</v>
+        <v>1360.886310435823</v>
       </c>
       <c r="R2">
-        <v>696.227440809104</v>
+        <v>12247.97679392241</v>
       </c>
       <c r="S2">
-        <v>0.00668904145384292</v>
+        <v>0.01196789592331693</v>
       </c>
       <c r="T2">
-        <v>0.00668904145384292</v>
+        <v>0.01196789592331693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H3">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I3">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J3">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N3">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O3">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P3">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q3">
-        <v>2.939185250564705</v>
+        <v>6.044944709544889</v>
       </c>
       <c r="R3">
-        <v>2.939185250564705</v>
+        <v>54.404502385904</v>
       </c>
       <c r="S3">
-        <v>2.823837560711945E-05</v>
+        <v>5.316040626705254E-05</v>
       </c>
       <c r="T3">
-        <v>2.823837560711945E-05</v>
+        <v>5.316040626705253E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H4">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I4">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J4">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N4">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O4">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P4">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q4">
-        <v>427.7512175115849</v>
+        <v>807.5838902339804</v>
       </c>
       <c r="R4">
-        <v>427.7512175115849</v>
+        <v>7268.255012105824</v>
       </c>
       <c r="S4">
-        <v>0.00410964213438879</v>
+        <v>0.007102048035572088</v>
       </c>
       <c r="T4">
-        <v>0.00410964213438879</v>
+        <v>0.007102048035572088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H5">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I5">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J5">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N5">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O5">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P5">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q5">
-        <v>182.2118793004008</v>
+        <v>472.2578773849298</v>
       </c>
       <c r="R5">
-        <v>182.2118793004008</v>
+        <v>4250.320896464368</v>
       </c>
       <c r="S5">
-        <v>0.001750610134824015</v>
+        <v>0.0041531265926978</v>
       </c>
       <c r="T5">
-        <v>0.001750610134824015</v>
+        <v>0.004153126592697798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H6">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I6">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J6">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N6">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O6">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P6">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q6">
-        <v>3.189623010669894</v>
+        <v>6.478086010547555</v>
       </c>
       <c r="R6">
-        <v>3.189623010669894</v>
+        <v>58.302774094928</v>
       </c>
       <c r="S6">
-        <v>3.064446945053993E-05</v>
+        <v>5.696953416461359E-05</v>
       </c>
       <c r="T6">
-        <v>3.064446945053993E-05</v>
+        <v>5.696953416461357E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H7">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I7">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J7">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N7">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O7">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P7">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q7">
-        <v>53962.50084802577</v>
+        <v>56365.63475244519</v>
       </c>
       <c r="R7">
-        <v>53962.50084802577</v>
+        <v>507290.7127720068</v>
       </c>
       <c r="S7">
-        <v>0.5184475416625351</v>
+        <v>0.4956902315763078</v>
       </c>
       <c r="T7">
-        <v>0.5184475416625351</v>
+        <v>0.4956902315763076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H8">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I8">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J8">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N8">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O8">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P8">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q8">
-        <v>227.8074337199103</v>
+        <v>250.3714990621189</v>
       </c>
       <c r="R8">
-        <v>227.8074337199103</v>
+        <v>2253.34349155907</v>
       </c>
       <c r="S8">
-        <v>0.002188671802242081</v>
+        <v>0.002201815111198143</v>
       </c>
       <c r="T8">
-        <v>0.002188671802242081</v>
+        <v>0.002201815111198142</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H9">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I9">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J9">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N9">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O9">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P9">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q9">
-        <v>33153.71398014441</v>
+        <v>33448.77396430682</v>
       </c>
       <c r="R9">
-        <v>33153.71398014441</v>
+        <v>301038.9656787614</v>
       </c>
       <c r="S9">
-        <v>0.3185260364117749</v>
+        <v>0.2941549507094224</v>
       </c>
       <c r="T9">
-        <v>0.3185260364117749</v>
+        <v>0.2941549507094223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H10">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I10">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J10">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N10">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O10">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P10">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q10">
-        <v>14122.69628419345</v>
+        <v>19560.13138020269</v>
       </c>
       <c r="R10">
-        <v>14122.69628419345</v>
+        <v>176041.1824218242</v>
       </c>
       <c r="S10">
-        <v>0.1356845412114474</v>
+        <v>0.1720155569275313</v>
       </c>
       <c r="T10">
-        <v>0.1356845412114474</v>
+        <v>0.1720155569275313</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H11">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I11">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J11">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N11">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O11">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P11">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q11">
-        <v>247.2181134057737</v>
+        <v>268.3114872751655</v>
       </c>
       <c r="R11">
-        <v>247.2181134057737</v>
+        <v>2414.80338547649</v>
       </c>
       <c r="S11">
-        <v>0.002375160919814233</v>
+        <v>0.002359582817547188</v>
       </c>
       <c r="T11">
-        <v>0.002375160919814233</v>
+        <v>0.002359582817547188</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H12">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I12">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J12">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N12">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O12">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P12">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q12">
-        <v>561.5834705905806</v>
+        <v>7.355314058731334</v>
       </c>
       <c r="R12">
-        <v>561.5834705905806</v>
+        <v>66.197826528582</v>
       </c>
       <c r="S12">
-        <v>0.005395442486736656</v>
+        <v>6.468404631832594E-05</v>
       </c>
       <c r="T12">
-        <v>0.005395442486736656</v>
+        <v>6.468404631832592E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H13">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I13">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J13">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N13">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O13">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P13">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q13">
-        <v>2.370773912333259</v>
+        <v>0.03267169819066667</v>
       </c>
       <c r="R13">
-        <v>2.370773912333259</v>
+        <v>0.294045283716</v>
       </c>
       <c r="S13">
-        <v>2.277733402587135E-05</v>
+        <v>2.873211969181317E-07</v>
       </c>
       <c r="T13">
-        <v>2.277733402587135E-05</v>
+        <v>2.873211969181317E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H14">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I14">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J14">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N14">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O14">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P14">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q14">
-        <v>345.0280744469632</v>
+        <v>4.364826874877334</v>
       </c>
       <c r="R14">
-        <v>345.0280744469632</v>
+        <v>39.283441873896</v>
       </c>
       <c r="S14">
-        <v>0.003314875222431996</v>
+        <v>3.838512692886117E-05</v>
       </c>
       <c r="T14">
-        <v>0.003314875222431996</v>
+        <v>3.838512692886117E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H15">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I15">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J15">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N15">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O15">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P15">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q15">
-        <v>146.9737812135558</v>
+        <v>2.552457893241334</v>
       </c>
       <c r="R15">
-        <v>146.9737812135558</v>
+        <v>22.972121039172</v>
       </c>
       <c r="S15">
-        <v>0.001412058269382506</v>
+        <v>2.244680557127381E-05</v>
       </c>
       <c r="T15">
-        <v>0.001412058269382506</v>
+        <v>2.24468055712738E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.035174</v>
+      </c>
+      <c r="H16">
+        <v>0.105522</v>
+      </c>
+      <c r="I16">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="J16">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9954153333333333</v>
+      </c>
+      <c r="N16">
+        <v>2.986246</v>
+      </c>
+      <c r="O16">
+        <v>0.002441565364515724</v>
+      </c>
+      <c r="P16">
+        <v>0.002441565364515724</v>
+      </c>
+      <c r="Q16">
+        <v>0.03501273893466667</v>
+      </c>
+      <c r="R16">
+        <v>0.315114650412</v>
+      </c>
+      <c r="S16">
+        <v>3.079087594217651E-07</v>
+      </c>
+      <c r="T16">
+        <v>3.07908759421765E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.822191</v>
+      </c>
+      <c r="H17">
+        <v>8.466573</v>
+      </c>
+      <c r="I17">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J17">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>209.1122436666667</v>
+      </c>
+      <c r="N17">
+        <v>627.336731</v>
+      </c>
+      <c r="O17">
+        <v>0.5129127453994473</v>
+      </c>
+      <c r="P17">
+        <v>0.5129127453994472</v>
+      </c>
+      <c r="Q17">
+        <v>590.1546920658737</v>
+      </c>
+      <c r="R17">
+        <v>5311.392228592863</v>
+      </c>
+      <c r="S17">
+        <v>0.005189933853504367</v>
+      </c>
+      <c r="T17">
+        <v>0.005189933853504364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.822191</v>
+      </c>
+      <c r="H18">
+        <v>8.466573</v>
+      </c>
+      <c r="I18">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J18">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9288593333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.786578</v>
+      </c>
+      <c r="O18">
+        <v>0.00227831609663822</v>
+      </c>
+      <c r="P18">
+        <v>0.00227831609663822</v>
+      </c>
+      <c r="Q18">
+        <v>2.621418450799334</v>
+      </c>
+      <c r="R18">
+        <v>23.592766057194</v>
+      </c>
+      <c r="S18">
+        <v>2.305325797610676E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.305325797610675E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.822191</v>
+      </c>
+      <c r="H19">
+        <v>8.466573</v>
+      </c>
+      <c r="I19">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J19">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>124.0924226666667</v>
+      </c>
+      <c r="N19">
+        <v>372.277268</v>
+      </c>
+      <c r="O19">
+        <v>0.3043752201075658</v>
+      </c>
+      <c r="P19">
+        <v>0.3043752201075658</v>
+      </c>
+      <c r="Q19">
+        <v>350.2125184180627</v>
+      </c>
+      <c r="R19">
+        <v>3151.912665762564</v>
+      </c>
+      <c r="S19">
+        <v>0.003079836235642509</v>
+      </c>
+      <c r="T19">
+        <v>0.003079836235642509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.79056486374348</v>
-      </c>
-      <c r="H16">
-        <v>2.79056486374348</v>
-      </c>
-      <c r="I16">
-        <v>0.01016987142407295</v>
-      </c>
-      <c r="J16">
-        <v>0.01016987142407295</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.921956465244721</v>
-      </c>
-      <c r="N16">
-        <v>0.921956465244721</v>
-      </c>
-      <c r="O16">
-        <v>0.002430523500760697</v>
-      </c>
-      <c r="P16">
-        <v>0.002430523500760697</v>
-      </c>
-      <c r="Q16">
-        <v>2.572779317813055</v>
-      </c>
-      <c r="R16">
-        <v>2.572779317813055</v>
-      </c>
-      <c r="S16">
-        <v>2.471811149592397E-05</v>
-      </c>
-      <c r="T16">
-        <v>2.471811149592397E-05</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.822191</v>
+      </c>
+      <c r="H20">
+        <v>8.466573</v>
+      </c>
+      <c r="I20">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J20">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>72.56660866666667</v>
+      </c>
+      <c r="N20">
+        <v>217.699826</v>
+      </c>
+      <c r="O20">
+        <v>0.1779921530318332</v>
+      </c>
+      <c r="P20">
+        <v>0.1779921530318332</v>
+      </c>
+      <c r="Q20">
+        <v>204.7968298795887</v>
+      </c>
+      <c r="R20">
+        <v>1843.171468916298</v>
+      </c>
+      <c r="S20">
+        <v>0.001801022706032831</v>
+      </c>
+      <c r="T20">
+        <v>0.00180102270603283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.822191</v>
+      </c>
+      <c r="H21">
+        <v>8.466573</v>
+      </c>
+      <c r="I21">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J21">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9954153333333333</v>
+      </c>
+      <c r="N21">
+        <v>2.986246</v>
+      </c>
+      <c r="O21">
+        <v>0.002441565364515724</v>
+      </c>
+      <c r="P21">
+        <v>0.002441565364515724</v>
+      </c>
+      <c r="Q21">
+        <v>2.809252194995334</v>
+      </c>
+      <c r="R21">
+        <v>25.283269754958</v>
+      </c>
+      <c r="S21">
+        <v>2.470510404450078E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.470510404450077E-05</v>
       </c>
     </row>
   </sheetData>
